--- a/REGULAR/SP-VMO/REOSA, CECILIA ANAY.xlsx
+++ b/REGULAR/SP-VMO/REOSA, CECILIA ANAY.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="109">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1054,7 +1054,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1097,7 +1097,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1161,7 +1161,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1221,7 +1221,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1287,7 +1287,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,7 +1350,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1448,7 +1448,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1507,7 +1507,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1572,7 +1572,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1615,7 +1615,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1690,7 +1690,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1876,7 +1876,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1942,7 +1942,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2000,7 +2000,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2066,7 +2066,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2122,7 +2122,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2197,7 +2197,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2240,7 +2240,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2306,7 +2306,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2362,7 +2362,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2458,7 +2458,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K155" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K156" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2805,12 +2805,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K155"/>
+  <dimension ref="A2:K156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A97" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
+      <selection pane="bottomLeft" activeCell="K112" sqref="K112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2983,7 +2983,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5192,7 +5192,9 @@
       <c r="A111" s="40">
         <v>45108</v>
       </c>
-      <c r="B111" s="20"/>
+      <c r="B111" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
       <c r="E111" s="9"/>
@@ -5201,16 +5203,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H111" s="39"/>
+      <c r="H111" s="39">
+        <v>1</v>
+      </c>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
-      <c r="K111" s="20"/>
+      <c r="K111" s="49">
+        <v>45118</v>
+      </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B112" s="20"/>
+      <c r="A112" s="40"/>
+      <c r="B112" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
       <c r="E112" s="9"/>
@@ -5219,14 +5225,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H112" s="39"/>
+      <c r="H112" s="39">
+        <v>1</v>
+      </c>
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
-      <c r="K112" s="20"/>
+      <c r="K112" s="49">
+        <v>45128</v>
+      </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5244,7 +5254,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5262,7 +5272,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5280,7 +5290,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5298,7 +5308,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5316,7 +5326,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5334,7 +5344,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5352,7 +5362,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5370,7 +5380,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5388,7 +5398,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5406,7 +5416,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5424,7 +5434,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5442,7 +5452,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5460,7 +5470,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5478,7 +5488,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5496,7 +5506,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5514,7 +5524,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5532,7 +5542,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5550,7 +5560,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5568,7 +5578,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5586,7 +5596,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5604,7 +5614,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5622,7 +5632,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5640,7 +5650,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5658,7 +5668,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5676,7 +5686,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5694,7 +5704,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5712,7 +5722,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5730,7 +5740,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5748,7 +5758,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5766,7 +5776,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -5784,7 +5794,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -5802,7 +5812,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -5820,7 +5830,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -5838,7 +5848,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -5856,7 +5866,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -5874,7 +5884,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -5891,7 +5901,9 @@
       <c r="K149" s="20"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="40"/>
+      <c r="A150" s="40">
+        <v>46266</v>
+      </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
       <c r="D150" s="39"/>
@@ -5971,20 +5983,36 @@
       <c r="K154" s="20"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="41"/>
-      <c r="B155" s="15"/>
-      <c r="C155" s="42"/>
-      <c r="D155" s="43"/>
+      <c r="A155" s="40"/>
+      <c r="B155" s="20"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="39"/>
       <c r="E155" s="9"/>
-      <c r="F155" s="15"/>
-      <c r="G155" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H155" s="43"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H155" s="39"/>
       <c r="I155" s="9"/>
-      <c r="J155" s="12"/>
-      <c r="K155" s="15"/>
+      <c r="J155" s="11"/>
+      <c r="K155" s="20"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="41"/>
+      <c r="B156" s="15"/>
+      <c r="C156" s="42"/>
+      <c r="D156" s="43"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H156" s="43"/>
+      <c r="I156" s="9"/>
+      <c r="J156" s="12"/>
+      <c r="K156" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/SP-VMO/REOSA, CECILIA ANAY.xlsx
+++ b/REGULAR/SP-VMO/REOSA, CECILIA ANAY.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="109">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2808,9 +2808,9 @@
   <dimension ref="A2:K156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A97" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A103" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="K112" sqref="K112"/>
+      <selection pane="bottomLeft" activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2973,7 +2973,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>45.127000000000002</v>
+        <v>47.627000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2983,7 +2983,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>72</v>
+        <v>73.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5195,13 +5195,15 @@
       <c r="B111" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C111" s="13"/>
+      <c r="C111" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D111" s="39"/>
       <c r="E111" s="9"/>
       <c r="F111" s="20"/>
-      <c r="G111" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G111" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H111" s="39">
         <v>1</v>
@@ -5238,19 +5240,27 @@
       <c r="A113" s="40">
         <v>45139</v>
       </c>
-      <c r="B113" s="20"/>
-      <c r="C113" s="13"/>
+      <c r="B113" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C113" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D113" s="39"/>
       <c r="E113" s="9"/>
       <c r="F113" s="20"/>
-      <c r="G113" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H113" s="39"/>
+      <c r="G113" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H113" s="39">
+        <v>1</v>
+      </c>
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
-      <c r="K113" s="20"/>
+      <c r="K113" s="49">
+        <v>45145</v>
+      </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
@@ -5268,7 +5278,7 @@
       <c r="H114" s="39"/>
       <c r="I114" s="9"/>
       <c r="J114" s="11"/>
-      <c r="K114" s="20"/>
+      <c r="K114" s="49"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">

--- a/REGULAR/SP-VMO/REOSA, CECILIA ANAY.xlsx
+++ b/REGULAR/SP-VMO/REOSA, CECILIA ANAY.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="117">
   <si>
     <t>PERIOD</t>
   </si>
@@ -382,6 +382,9 @@
   </si>
   <si>
     <t>12/27-29/2023</t>
+  </si>
+  <si>
+    <t>01/04,09/2024</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1078,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1118,7 +1121,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1182,7 +1185,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1242,7 +1245,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1308,7 +1311,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1371,7 +1374,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1469,7 +1472,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1528,7 +1531,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1593,7 +1596,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1636,7 +1639,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1711,7 +1714,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1897,7 +1900,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1963,7 +1966,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2021,7 +2024,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2087,7 +2090,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2143,7 +2146,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2218,7 +2221,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2261,7 +2264,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2327,7 +2330,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2383,7 +2386,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2831,7 +2834,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A100" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="K118" sqref="K118"/>
+      <selection pane="bottomLeft" activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3004,7 +3007,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>73.25</v>
+        <v>71.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5426,7 +5429,9 @@
       <c r="A120" s="40">
         <v>45292</v>
       </c>
-      <c r="B120" s="20"/>
+      <c r="B120" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
       <c r="E120" s="9"/>
@@ -5435,10 +5440,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H120" s="39"/>
+      <c r="H120" s="39">
+        <v>2</v>
+      </c>
       <c r="I120" s="9"/>
       <c r="J120" s="11"/>
-      <c r="K120" s="20"/>
+      <c r="K120" s="20" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">

--- a/REGULAR/SP-VMO/REOSA, CECILIA ANAY.xlsx
+++ b/REGULAR/SP-VMO/REOSA, CECILIA ANAY.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\SP-VMO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\SP-VMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D9E6D0-CCF5-4103-BAF9-E37758A5327D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="118">
   <si>
     <t>PERIOD</t>
   </si>
@@ -385,12 +386,15 @@
   </si>
   <si>
     <t>01/04,09/2024</t>
+  </si>
+  <si>
+    <t>2/1,7,8/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1078,7 +1082,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1121,7 +1125,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1185,7 +1189,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1245,7 +1249,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1311,7 +1315,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1374,7 +1378,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1472,7 +1476,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1531,7 +1535,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1596,7 +1600,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1639,7 +1643,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1714,7 +1718,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1900,7 +1904,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1966,7 +1970,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2024,7 +2028,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2090,7 +2094,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2146,7 +2150,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2221,7 +2225,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2264,7 +2268,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2330,7 +2334,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2386,7 +2390,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2465,7 +2469,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2482,25 +2486,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K158" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K158" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2807,7 +2811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2817,7 +2821,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2825,34 +2829,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:M158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A100" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A115" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="G121" sqref="G121"/>
+      <selection pane="bottomLeft" activeCell="K122" sqref="K122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2873,7 +2877,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2893,7 +2897,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2915,7 +2919,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2923,7 +2927,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2936,7 +2940,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -2953,7 +2957,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2988,7 +2992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2997,7 +3001,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>48.377000000000002</v>
+        <v>50.877000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3007,12 +3011,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>71.25</v>
+        <v>70.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>46</v>
       </c>
@@ -3034,7 +3038,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3058,7 +3062,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>48</v>
@@ -3080,7 +3084,7 @@
         <v>43133</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20"/>
       <c r="C13" s="13"/>
@@ -3096,7 +3100,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43132</v>
       </c>
@@ -3116,7 +3120,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43160</v>
       </c>
@@ -3136,7 +3140,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43191</v>
       </c>
@@ -3162,7 +3166,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>52</v>
@@ -3182,7 +3186,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>53</v>
@@ -3204,7 +3208,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43221</v>
       </c>
@@ -3230,7 +3234,7 @@
         <v>43238</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>56</v>
@@ -3252,7 +3256,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43252</v>
       </c>
@@ -3272,7 +3276,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43282</v>
       </c>
@@ -3292,7 +3296,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43313</v>
       </c>
@@ -3318,7 +3322,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43344</v>
       </c>
@@ -3338,7 +3342,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43374</v>
       </c>
@@ -3358,7 +3362,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43405</v>
       </c>
@@ -3384,7 +3388,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43435</v>
       </c>
@@ -3410,7 +3414,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="48" t="s">
         <v>62</v>
       </c>
@@ -3428,7 +3432,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43466</v>
       </c>
@@ -3448,7 +3452,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43497</v>
       </c>
@@ -3468,7 +3472,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43525</v>
       </c>
@@ -3488,7 +3492,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43556</v>
       </c>
@@ -3514,7 +3518,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>58</v>
@@ -3536,7 +3540,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43586</v>
       </c>
@@ -3556,7 +3560,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43617</v>
       </c>
@@ -3582,7 +3586,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>52</v>
@@ -3604,7 +3608,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>55</v>
@@ -3626,7 +3630,7 @@
         <v>43704</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43647</v>
       </c>
@@ -3646,7 +3650,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43678</v>
       </c>
@@ -3672,7 +3676,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>47</v>
@@ -3692,7 +3696,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43709</v>
       </c>
@@ -3712,7 +3716,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43739</v>
       </c>
@@ -3732,7 +3736,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43770</v>
       </c>
@@ -3758,7 +3762,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>68</v>
@@ -3780,7 +3784,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>43800</v>
       </c>
@@ -3800,7 +3804,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="48" t="s">
         <v>70</v>
       </c>
@@ -3818,7 +3822,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>43831</v>
       </c>
@@ -3842,7 +3846,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>43862</v>
       </c>
@@ -3862,7 +3866,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>43891</v>
       </c>
@@ -3882,7 +3886,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>43922</v>
       </c>
@@ -3902,7 +3906,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>43952</v>
       </c>
@@ -3922,7 +3926,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>43983</v>
       </c>
@@ -3948,7 +3952,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44013</v>
       </c>
@@ -3968,7 +3972,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44044</v>
       </c>
@@ -3988,7 +3992,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44075</v>
       </c>
@@ -4008,7 +4012,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44105</v>
       </c>
@@ -4028,7 +4032,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44136</v>
       </c>
@@ -4048,7 +4052,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44166</v>
       </c>
@@ -4074,7 +4078,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>74</v>
@@ -4094,7 +4098,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="48" t="s">
         <v>75</v>
       </c>
@@ -4112,7 +4116,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44197</v>
       </c>
@@ -4132,7 +4136,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44228</v>
       </c>
@@ -4152,7 +4156,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44256</v>
       </c>
@@ -4172,7 +4176,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44287</v>
       </c>
@@ -4192,7 +4196,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44317</v>
       </c>
@@ -4212,7 +4216,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44348</v>
       </c>
@@ -4232,7 +4236,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44378</v>
       </c>
@@ -4252,7 +4256,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44409</v>
       </c>
@@ -4272,7 +4276,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44440</v>
       </c>
@@ -4292,7 +4296,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44470</v>
       </c>
@@ -4312,7 +4316,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44501</v>
       </c>
@@ -4332,7 +4336,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44531</v>
       </c>
@@ -4358,7 +4362,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="48" t="s">
         <v>78</v>
       </c>
@@ -4376,7 +4380,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44562</v>
       </c>
@@ -4396,7 +4400,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44593</v>
       </c>
@@ -4416,7 +4420,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44621</v>
       </c>
@@ -4442,7 +4446,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>108</v>
@@ -4462,7 +4466,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44652</v>
       </c>
@@ -4488,7 +4492,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>52</v>
@@ -4510,7 +4514,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>107</v>
@@ -4530,7 +4534,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>44682</v>
       </c>
@@ -4554,7 +4558,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>44713</v>
       </c>
@@ -4580,7 +4584,7 @@
         <v>44700</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>101</v>
@@ -4602,7 +4606,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>103</v>
@@ -4622,7 +4626,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="49"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>44743</v>
       </c>
@@ -4648,7 +4652,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>100</v>
@@ -4668,7 +4672,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>44774</v>
       </c>
@@ -4694,7 +4698,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>97</v>
@@ -4714,7 +4718,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>44805</v>
       </c>
@@ -4734,7 +4738,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>44835</v>
       </c>
@@ -4760,7 +4764,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>93</v>
@@ -4780,7 +4784,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>44866</v>
       </c>
@@ -4806,7 +4810,7 @@
         <v>44872</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>68</v>
@@ -4828,7 +4832,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>50</v>
@@ -4850,7 +4854,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>50</v>
@@ -4872,7 +4876,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>92</v>
@@ -4892,7 +4896,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>44896</v>
       </c>
@@ -4918,7 +4922,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>91</v>
@@ -4938,7 +4942,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="48" t="s">
         <v>85</v>
       </c>
@@ -4956,7 +4960,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>44927</v>
       </c>
@@ -4982,7 +4986,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>44958</v>
       </c>
@@ -5006,7 +5010,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>44986</v>
       </c>
@@ -5032,7 +5036,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>45017</v>
       </c>
@@ -5052,7 +5056,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>45047</v>
       </c>
@@ -5078,7 +5082,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>58</v>
@@ -5100,7 +5104,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>58</v>
@@ -5122,7 +5126,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>58</v>
@@ -5144,7 +5148,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>55</v>
@@ -5166,7 +5170,7 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>55</v>
@@ -5191,7 +5195,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>45078</v>
       </c>
@@ -5217,7 +5221,7 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>45108</v>
       </c>
@@ -5243,7 +5247,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>55</v>
@@ -5265,7 +5269,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>45139</v>
       </c>
@@ -5291,7 +5295,7 @@
         <v>45145</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>45170</v>
       </c>
@@ -5311,7 +5315,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="49"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>45200</v>
       </c>
@@ -5337,7 +5341,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>45231</v>
       </c>
@@ -5363,20 +5367,22 @@
         <v>45252</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>45261</v>
       </c>
       <c r="B117" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C117" s="13"/>
+      <c r="C117" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D117" s="39"/>
       <c r="E117" s="9"/>
       <c r="F117" s="20"/>
-      <c r="G117" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G117" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H117" s="39"/>
       <c r="I117" s="9"/>
@@ -5385,7 +5391,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>114</v>
@@ -5407,7 +5413,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="48" t="s">
         <v>110</v>
       </c>
@@ -5425,20 +5431,22 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>45292</v>
       </c>
       <c r="B120" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C120" s="13"/>
+      <c r="C120" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D120" s="39"/>
       <c r="E120" s="9"/>
       <c r="F120" s="20"/>
-      <c r="G120" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G120" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H120" s="39">
         <v>2</v>
@@ -5449,11 +5457,13 @@
         <v>116</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>45323</v>
       </c>
-      <c r="B121" s="20"/>
+      <c r="B121" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
       <c r="E121" s="9"/>
@@ -5462,12 +5472,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H121" s="39"/>
+      <c r="H121" s="39">
+        <v>3</v>
+      </c>
       <c r="I121" s="9"/>
       <c r="J121" s="11"/>
-      <c r="K121" s="20"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K121" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>45352</v>
       </c>
@@ -5485,7 +5499,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>45383</v>
       </c>
@@ -5503,7 +5517,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>45413</v>
       </c>
@@ -5521,7 +5535,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>45444</v>
       </c>
@@ -5539,7 +5553,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>45474</v>
       </c>
@@ -5557,7 +5571,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>45505</v>
       </c>
@@ -5575,7 +5589,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>45536</v>
       </c>
@@ -5593,7 +5607,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>45566</v>
       </c>
@@ -5611,7 +5625,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>45597</v>
       </c>
@@ -5629,7 +5643,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>45627</v>
       </c>
@@ -5647,7 +5661,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>45658</v>
       </c>
@@ -5665,7 +5679,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>45689</v>
       </c>
@@ -5683,7 +5697,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>45717</v>
       </c>
@@ -5701,7 +5715,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>45748</v>
       </c>
@@ -5719,7 +5733,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>45778</v>
       </c>
@@ -5737,7 +5751,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>45809</v>
       </c>
@@ -5755,7 +5769,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>45839</v>
       </c>
@@ -5773,7 +5787,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>45870</v>
       </c>
@@ -5791,7 +5805,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>45901</v>
       </c>
@@ -5809,7 +5823,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>45931</v>
       </c>
@@ -5827,7 +5841,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>45962</v>
       </c>
@@ -5845,7 +5859,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>45992</v>
       </c>
@@ -5863,7 +5877,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>46023</v>
       </c>
@@ -5881,7 +5895,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>46054</v>
       </c>
@@ -5899,7 +5913,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <v>46082</v>
       </c>
@@ -5917,7 +5931,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>46113</v>
       </c>
@@ -5935,7 +5949,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>46143</v>
       </c>
@@ -5953,7 +5967,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>46174</v>
       </c>
@@ -5971,7 +5985,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>46204</v>
       </c>
@@ -5989,7 +6003,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>46235</v>
       </c>
@@ -6007,7 +6021,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>46266</v>
       </c>
@@ -6025,7 +6039,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -6041,7 +6055,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -6057,7 +6071,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -6073,7 +6087,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -6089,7 +6103,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -6105,7 +6119,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="41"/>
       <c r="B158" s="15"/>
       <c r="C158" s="42"/>
@@ -6136,10 +6150,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6162,28 +6176,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -6196,7 +6210,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6225,7 +6239,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>12.62</v>
       </c>
@@ -6253,17 +6267,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -6284,7 +6298,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -6311,7 +6325,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6337,7 +6351,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6363,7 +6377,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6389,7 +6403,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6415,7 +6429,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6441,7 +6455,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6467,7 +6481,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6493,7 +6507,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6513,7 +6527,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6533,7 +6547,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6553,7 +6567,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6574,7 +6588,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6595,7 +6609,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6616,7 +6630,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6637,7 +6651,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6658,7 +6672,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6679,7 +6693,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6700,7 +6714,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6721,7 +6735,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6742,7 +6756,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6763,7 +6777,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6784,7 +6798,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6805,7 +6819,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6826,7 +6840,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6847,7 +6861,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6868,7 +6882,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6889,7 +6903,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6910,7 +6924,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6931,7 +6945,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6952,7 +6966,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6973,7 +6987,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6982,7 +6996,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6991,7 +7005,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7000,7 +7014,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7009,7 +7023,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7018,7 +7032,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7027,7 +7041,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7036,7 +7050,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7045,7 +7059,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7054,7 +7068,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7063,7 +7077,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7072,7 +7086,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7081,7 +7095,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7090,7 +7104,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7099,7 +7113,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7108,7 +7122,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7117,7 +7131,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7126,7 +7140,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7135,7 +7149,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7144,7 +7158,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7153,7 +7167,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7162,7 +7176,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7171,7 +7185,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7180,7 +7194,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7189,7 +7203,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7198,7 +7212,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7207,7 +7221,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7216,7 +7230,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7225,7 +7239,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7234,7 +7248,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
